--- a/PolimorfismAutoIO/src/main/resources/Automobiles.xlsx
+++ b/PolimorfismAutoIO/src/main/resources/Automobiles.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\training\PolimorfismAutoIO\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\training\PolimorfismAutoIO\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Car" sheetId="1" r:id="rId1"/>
+    <sheet name="car" sheetId="1" r:id="rId1"/>
+    <sheet name="#truck" sheetId="2" r:id="rId2"/>
+    <sheet name="trucks" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -32,14 +34,101 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>Volvo</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>bootVolume</t>
+  </si>
+  <si>
+    <t>bodywork</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Sprinter</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>MINIVAN</t>
+  </si>
+  <si>
+    <r>
+      <t>trailerBrand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>trailerModel</t>
+  </si>
+  <si>
+    <t>carrying</t>
+  </si>
+  <si>
+    <t>volumeOfCargo</t>
+  </si>
+  <si>
+    <t>trailerType</t>
+  </si>
+  <si>
+    <t>loading</t>
+  </si>
+  <si>
+    <t>DAF</t>
+  </si>
+  <si>
+    <t>XF-105</t>
+  </si>
+  <si>
+    <t>Schmitz</t>
+  </si>
+  <si>
+    <t>TILTCOVEREDTRUCK</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Scania</t>
+  </si>
+  <si>
+    <t>124L 6x2</t>
+  </si>
+  <si>
+    <t>Koegel</t>
+  </si>
+  <si>
+    <t>BPW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +136,28 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,8 +180,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -351,28 +470,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>45454</v>
+        <v>2324546</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <v>40333.800000000003</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2324547</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>260</v>
+      </c>
+      <c r="E3">
+        <v>30573.599999999999</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>129908</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>330</v>
+      </c>
+      <c r="E2">
+        <v>40333.800000000003</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>120</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>343890</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>320</v>
+      </c>
+      <c r="E3">
+        <v>65056.6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1997</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>92</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="F9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>123466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>310</v>
+      </c>
+      <c r="E2">
+        <v>43988.800000000003</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
